--- a/storage/app/download/smt_wbglbaseimport.xlsx
+++ b/storage/app/download/smt_wbglbaseimport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin_aota\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275CBD11-563A-409D-A0B1-85D67EDFE8B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB531516-D097-4F7F-8561-0B786F8C0FF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="825" yWindow="-120" windowWidth="19785" windowHeight="11760" xr2:uid="{D784A052-68D2-45B1-A329-EBCC929006BF}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>网板部番</t>
     <rPh sb="0" eb="3">
@@ -91,6 +91,14 @@
   </si>
   <si>
     <t>6-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网板编号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ19-7708</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -476,11 +484,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4B1E3D-E4A9-4D91-9650-911119DA5B15}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -489,13 +497,14 @@
     <col min="2" max="2" width="10.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,16 +518,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -532,12 +544,15 @@
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
     </row>

--- a/storage/app/download/smt_wbglbaseimport.xlsx
+++ b/storage/app/download/smt_wbglbaseimport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin_aota\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB531516-D097-4F7F-8561-0B786F8C0FF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE9BFB6-6600-4997-BC74-85855E934120}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="825" yWindow="-120" windowWidth="19785" windowHeight="11760" xr2:uid="{D784A052-68D2-45B1-A329-EBCC929006BF}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>网板部番</t>
     <rPh sb="0" eb="3">
@@ -72,9 +72,6 @@
     <t>RH00202A</t>
   </si>
   <si>
-    <t>FRONT</t>
-  </si>
-  <si>
     <t>84-36959Z01-A</t>
   </si>
   <si>
@@ -98,7 +95,42 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>网板作成日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-10-10</t>
+  </si>
+  <si>
+    <t>2019-10-10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>T7AW</t>
+  </si>
+  <si>
     <t>SZ19-7708</t>
+  </si>
+  <si>
+    <t>T:013-0.11</t>
+  </si>
+  <si>
+    <t>纳米,0603</t>
+  </si>
+  <si>
+    <t>FRONT-RA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRONT-RB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ19-7707</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -484,27 +516,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4B1E3D-E4A9-4D91-9650-911119DA5B15}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,39 +554,74 @@
         <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
